--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570343.625744339</v>
+        <v>1605314.29561648</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>278692.0725916858</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6413966.697817633</v>
+        <v>6506213.476825042</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>366.545831948604</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>113.6180270793163</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>177.2701778859457</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>146.6325435271071</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.3086748172354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>201.3877264506293</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>166.8316574011724</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>59.25664966154027</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>285.8594785580453</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>236.0942751322864</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1531,13 +1531,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>67.65667327773704</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>31.28831241118249</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1607,25 +1607,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.22772027659336</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314423</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,16 +1664,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1771,16 +1771,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002664</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>152.8474034491047</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>218.9887234481604</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="18">
@@ -2002,13 +2002,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>137.2470510215429</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>140.5689102989815</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225595</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2618,7 +2618,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170527</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,10 +2767,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>172.6623007436915</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3038,7 +3038,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3196,7 +3196,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>35.34780583513564</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3269,7 +3269,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772997</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3278,7 +3278,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.38385306297</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>52.49195549286388</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>123.2901323038665</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225779</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3755,10 +3755,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>311.6035184023953</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>91.3922693100219</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>172.6623007436918</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812.854954171005</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>778.7528853948324</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>746.883504609681</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>717.1491638083803</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>693.3221382579922</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4361,19 +4361,19 @@
         <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W2" t="n">
-        <v>854.4618996557366</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="X2" t="n">
-        <v>839.3598402754513</v>
+        <v>290.5013348776264</v>
       </c>
       <c r="Y2" t="n">
-        <v>835.1141206155088</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4498,7 +4498,7 @@
         <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="W4" t="n">
-        <v>1549.069749750006</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="X4" t="n">
-        <v>1303.677995083419</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.258324397527</v>
+        <v>1113.00182921349</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>341.5177676270653</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>307.4156988508926</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.25941213986526</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.96745565769</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530728</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847745</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1596.060975781572</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1191.205521192605</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>772.0630577719156</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>767.8173381119731</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.640221925911</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C8" t="n">
-        <v>408.5381531497384</v>
+        <v>1263.938003889275</v>
       </c>
       <c r="D8" t="n">
-        <v>376.668772364587</v>
+        <v>1232.068623104124</v>
       </c>
       <c r="E8" t="n">
-        <v>346.9344315632862</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>323.107406012898</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>323.107406012898</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1528.02936532736</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2472.724095295529</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2034.581622478952</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1598.671837653397</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1164.897092811692</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>737.0296632208997</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>335.6318318441635</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239596</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4493.924657556612</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4131.307707490439</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3726.452252901472</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3307.309789480783</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2899.023665780437</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>999.0870832547529</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C13" t="n">
-        <v>826.5253717379778</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D13" t="n">
-        <v>660.6473789395005</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>490.8893751902377</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2501.132040616392</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2222.699039869497</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1935.743531739928</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1663.717127326219</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X13" t="n">
-        <v>1418.325372659632</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y13" t="n">
-        <v>1190.90570197374</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168566</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351989</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847293</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>516.962436093937</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172008</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397521</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653474</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1219.236799527848</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1759.975738159924</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>917.3761843184092</v>
+        <v>790.3368563937674</v>
       </c>
       <c r="C16" t="n">
-        <v>744.8144728016341</v>
+        <v>617.7751448769924</v>
       </c>
       <c r="D16" t="n">
-        <v>578.9364800031568</v>
+        <v>451.8971520785151</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>282.1391483292524</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>105.4320942910086</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749238</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.20281171958</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583913</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289284</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587281</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165736</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418841</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V16" t="n">
-        <v>1854.032632803584</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.006228389876</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X16" t="n">
-        <v>1336.614473723288</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1109.194803037396</v>
+        <v>982.1554751127546</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181362</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364786</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.97319753923</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697525</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>609.3310231067326</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.130292351015</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447623</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252391</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.44832012543</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442446</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376273</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787306</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366617</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.32502566627</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.077185838983</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C19" t="n">
-        <v>808.077185838983</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D19" t="n">
-        <v>669.4438009687376</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687376</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304937</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563213</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571964</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251574</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200622</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453727</v>
+        <v>2150.393015473603</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324157</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.707229910449</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243861</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579695</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,40 +5759,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477112</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309363</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324589</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831959</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5914,7 +5914,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5935,19 +5935,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.801834709351</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962456</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
         <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419178</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
         <v>1371.99516675259</v>
@@ -5966,7 +5966,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5978,58 +5978,58 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
         <v>2955.199618136697</v>
@@ -6057,10 +6057,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
         <v>128.3245134312372</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477117</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309363</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324588</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.559169283196</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354696</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6157,7 +6157,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130896</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.801834709351</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962456</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832887</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419178</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.995166752591</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066699</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,40 +6227,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
@@ -6269,7 +6269,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883923</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716173</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731399</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238772</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856334</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.57329640738</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601649</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883913</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716163</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407378</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771609</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6947,40 +6947,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324586</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2506.656904206056</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008509</v>
+        <v>2228.223903459162</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7184,16 +7184,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7309,13 +7309,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538673</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2496.531034410832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410832</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981138</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814534</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773129</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583061</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900078</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833904</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144616</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723927</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.9095056074557</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>778.3477940906807</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4698012922031</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429401</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046961</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2698.833909390639</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2452.954462969094</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2174.5214622222</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.565954092631</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.539549678922</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.147795012335</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1142.728124326443</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693462</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884174</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874518</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776221</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777442</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284815</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587284</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165739</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2112.450585778172</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2112.450585778172</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1840.424181364463</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1595.032426697876</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8146,10 +8146,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>305.8360165328638</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504349</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,7 +9887,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.14457787892946</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>96.56253959275548</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>212.1323395461468</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>268.0111327346226</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.795820744404</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>131.2385495991691</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>178.3951296148083</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>26.97216184894963</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>135.0797604404442</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627274</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>102.9863699957342</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>190.9286964644654</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627255</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>89.20338164068173</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.9863699957339</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>540000.6868726439</v>
+        <v>550569.28889204</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>540000.6868726439</v>
+        <v>552472.1889303112</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544721.2131704903</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>544721.2131704902</v>
+        <v>567709.070829035</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>552407.7592576853</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>567709.070829035</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>560022.5247418401</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544721.2131704903</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
   </sheetData>
@@ -26320,22 +26320,22 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>404419.1183773412</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="F2" t="n">
-        <v>404419.1183773412</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="G2" t="n">
-        <v>410125.8654560109</v>
+        <v>421486.067309882</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="J2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="K2" t="n">
         <v>421486.0673098819</v>
@@ -26347,13 +26347,13 @@
         <v>421486.0673098819</v>
       </c>
       <c r="N2" t="n">
+        <v>421486.0673098819</v>
+      </c>
+      <c r="O2" t="n">
         <v>421486.067309882</v>
       </c>
-      <c r="O2" t="n">
-        <v>415779.3202312122</v>
-      </c>
       <c r="P2" t="n">
-        <v>404419.1183773412</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501606</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998288</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996337</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877243</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.3017266224</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932458</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856654</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856647</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
-        <v>66167.89355701634</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="K4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="L4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="M4" t="n">
+        <v>68000.69828933275</v>
+      </c>
+      <c r="N4" t="n">
+        <v>68000.69828933275</v>
+      </c>
+      <c r="O4" t="n">
         <v>68000.69828933277</v>
       </c>
-      <c r="K4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68000.69828933277</v>
-      </c>
-      <c r="M4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="O4" t="n">
-        <v>67079.996950883</v>
-      </c>
       <c r="P4" t="n">
-        <v>65247.19221856656</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>27472.94086887892</v>
       </c>
       <c r="C6" t="n">
-        <v>169664.2415285889</v>
+        <v>127146.9754160624</v>
       </c>
       <c r="D6" t="n">
-        <v>169664.2415285888</v>
+        <v>186541.0945479125</v>
       </c>
       <c r="E6" t="n">
-        <v>31297.56185908976</v>
+        <v>93388.79685432414</v>
       </c>
       <c r="F6" t="n">
-        <v>265652.5838811272</v>
+        <v>275743.9060753739</v>
       </c>
       <c r="G6" t="n">
-        <v>262705.416055902</v>
+        <v>275743.906075374</v>
       </c>
       <c r="H6" t="n">
-        <v>263364.3754347933</v>
+        <v>275743.9060753739</v>
       </c>
       <c r="I6" t="n">
-        <v>275767.1304147566</v>
+        <v>275743.9060753739</v>
       </c>
       <c r="J6" t="n">
-        <v>164752.6650697665</v>
+        <v>164729.4407303836</v>
       </c>
       <c r="K6" t="n">
-        <v>275767.1304147565</v>
+        <v>222698.0514366015</v>
       </c>
       <c r="L6" t="n">
-        <v>275767.1304147566</v>
+        <v>266351.6043487515</v>
       </c>
       <c r="M6" t="n">
-        <v>80165.95113168888</v>
+        <v>123543.7351373864</v>
       </c>
       <c r="N6" t="n">
-        <v>275767.1304147567</v>
+        <v>275743.906075374</v>
       </c>
       <c r="O6" t="n">
-        <v>272385.0871971312</v>
+        <v>275743.906075374</v>
       </c>
       <c r="P6" t="n">
-        <v>265652.5838811272</v>
+        <v>275743.9060753739</v>
       </c>
     </row>
   </sheetData>
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>30.83802111436472</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>290.5852353840268</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>98.37849285348003</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>122.6735968424643</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>230.1629605266706</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.8170133382533</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,67 +27859,67 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>370.1803477317475</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.3793744531705556</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>217.8665548556918</v>
-      </c>
-      <c r="U8" t="n">
-        <v>256.6300796561533</v>
-      </c>
-      <c r="V8" t="n">
-        <v>358.9907805655117</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-9.546558325093882e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-5.515615154493804e-13</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-7.742005345385692e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34866,10 +34866,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,19 +35419,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>305.8360165328638</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512916</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504349</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908063</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36434,7 +36434,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908073</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,10 +36604,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,13 +37476,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645583</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
